--- a/biology/Botanique/Cattleya_trianae/Cattleya_trianae.xlsx
+++ b/biology/Botanique/Cattleya_trianae/Cattleya_trianae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cattleya trianae est une espèce d'orchidées du genre Cattleya. Surnommée parfois Flor de Mayo (« fleur de mai »), elle est endémique de Colombie dont elle est un des symboles nationaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le pilote de la série télévisée belge Astrid et Raphaëlle, la fleur est mentionnée. Il s'avère que la coupable, d'origine colombienne avait perdu une sœur appelée Cattleya.
 Dans le film Columbiana, Zoe Saldana prend les traits d'une petite fille colombienne nommée Cataleya en référence à l'orchidée, référence qu'elle utilise comme signature une fois adulte en tant que tueuse à gage. Elle laisse sur chaque victime le dessin d'une cattleya sur le torse.
